--- a/src/main/resources/populate/demarrer.xlsx
+++ b/src/main/resources/populate/demarrer.xlsx
@@ -404,12 +404,13 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">

--- a/src/main/resources/populate/demarrer.xlsx
+++ b/src/main/resources/populate/demarrer.xlsx
@@ -15,36 +15,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Bien désencombrer (5 jours)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Objectif et vision</t>
   </si>
   <si>
-    <t>Prévoir l'après</t>
-  </si>
-  <si>
-    <t>sacs cartons etc + vendre ou acheter (lien)</t>
-  </si>
-  <si>
     <t>Analyser</t>
   </si>
   <si>
-    <t>carnet suivi, pq, combien, etc et lien vers profils</t>
-  </si>
-  <si>
-    <t>Conseils pour réussir</t>
-  </si>
-  <si>
-    <t>rassembler conseils random</t>
-  </si>
-  <si>
-    <t>x questions à se poser</t>
-  </si>
-  <si>
-    <t>quest pdt desencombrt</t>
+    <t>Bien désencombrer</t>
+  </si>
+  <si>
+    <t>L'important c'est le chemin, mais…</t>
+  </si>
+  <si>
+    <t>Savoir exactement pourquoi tu te lances et ce que tu veux accomplir augmente ta motivation et te rend plus efficace ! Avant de commencer à désencombrer, note :&lt;br&gt;- Ton objectif : pourquoi tu le fais, et ce que tu veux atteindre (à court et moyen terme)&lt;br&gt;- Ta vision idéale (à quoi ressembleront ton intérieur, ta vie... quand tu auras atteint tes grands objectifs)&lt;br&gt;&lt;br&gt;Plus tu seras précis.e, plus ce sera motivant pour la suite. N'hésite pas à utiliser des moyens visuels (board Pinterest, mindmapping, scrapbooking...). Garde tout ça précieusement et reviens-y quand ta motivation diminue.</t>
+  </si>
+  <si>
+    <t>Prévoir la suite</t>
+  </si>
+  <si>
+    <t>Quand y'en a plus, y'en a encore…</t>
+  </si>
+  <si>
+    <t>Après avoir désencombré, il faut bien faire quelque chose des objets. Réfléchis tout de suite à ce que tu feras de ce dont tu n'as plus besoin. Tu peux décider de &lt;a href="https://www.theflonicles.be/2019/04/desencombrement-donner-ou-vendre.html"&gt;vendre ou donner&lt;/a&gt; les objets encore en bon état, tu devras probablement en recycler une partie, ou encore en jeter. Prévois les sacs, cartons... nécessaires dès le début et programme déjà tes trajets. Objectif : manipuler les objets le moins possible et les faire sortir rapidement de chez toi.</t>
+  </si>
+  <si>
+    <t>Plus jamais ça.</t>
+  </si>
+  <si>
+    <t>Le but n'est certainement pas de devoir refaire le tri tous les 6 mois ! Pour éviter de se ré-encombrer :&lt;br&gt;- &lt;a href="https://www.theflonicles.be/2019/03/pourquoi-on-narrive-pas-a-desencombrer-freins.html"&gt;Trouve ton profil&lt;/a&gt; pour connaître tes points faibles&lt;br&gt;- Pour chaque objet dont tu te débarrasseras, réfléchis à pourquoi tu l'as acheté&lt;br&gt;- Essaie de mettre une valeur sur les objets dont tu te débarrasses&lt;br&gt;- N'hésite pas à prendre des notes et à analyser (dans le carnet où tu as écrit ta motivation en premier lieu !) pour ne plus commettre les mêmes erreurs</t>
+  </si>
+  <si>
+    <t>4 jours pour mettre en place les outils et l'état d'esprit nécessaires pour mener à bien son désencombrement !</t>
+  </si>
+  <si>
+    <t>A connaître sur le bout des doigts !</t>
+  </si>
+  <si>
+    <t>7 questions à se poser</t>
+  </si>
+  <si>
+    <t>Voici la liste des questions à se poser face à un objet pour savoir si on le garde ou pas !&lt;br&gt;- Est-ce que je m'en sers (assez régulièrement) ?&lt;br&gt;- Est-il en bon état ?&lt;br&gt;- Est-ce que j'aime l'utiliser ?&lt;br&gt;- Est-ce que je le garde par culpabilité (cadeau, coût...) ?&lt;br&gt;- Est-ce qu'il fait double-emploi ?&lt;br&gt;- Est-ce que je peux l'emprunter ?&lt;br&gt;- Est-ce qu'il peut servir à quelqu'un d'autre plus qu'à moi ?&lt;br&gt;&lt;br&gt;Sois honnête et ne cherche pas d'excuse pour garder quelque chose dont tu n'as pas besoin !&lt;br&gt;&lt;br&gt;C'est parti, rendez-vous dès demain pour commencer à désencombrer une première catégorie d'objets !</t>
   </si>
 </sst>
 </file>
@@ -80,8 +92,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,15 +398,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -401,53 +424,61 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="99.21875" customWidth="1"/>
+    <col min="3" max="3" width="29.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
